--- a/stata/descritiva.xlsx
+++ b/stata/descritiva.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\stata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maicon/Google Drive/101 Tese Legibilidade/teseLegibildiadeCPC/stata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380016AF-239C-425A-8CC7-C6350B918584}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D087F4F8-3C0E-F341-AFFD-316F17724307}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18810" windowHeight="13650" activeTab="10" xr2:uid="{421514AB-0E5F-4FCE-A447-4BBE4D8F7753}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18820" windowHeight="13660" firstSheet="1" activeTab="10" xr2:uid="{421514AB-0E5F-4FCE-A447-4BBE4D8F7753}"/>
   </bookViews>
   <sheets>
     <sheet name="t1" sheetId="1" r:id="rId1"/>
@@ -1396,15 +1396,15 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1432,7 +1432,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>38.533329999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>49.266669999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>900000000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1540,7 +1540,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1659,7 +1659,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -1670,11 +1670,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5EFBD4-5B0B-4519-9C07-EC80BE795915}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -1689,14 +1689,14 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -2203,14 +2203,14 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>69</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>71</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -2338,16 +2338,16 @@
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>123</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -2565,9 +2565,9 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>147</v>
       </c>
@@ -2702,24 +2702,24 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -2738,7 +2738,7 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -2751,7 +2751,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -2764,7 +2764,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
